--- a/ig/StructureDefinition-ror-location-equipement.xlsx
+++ b/ig/StructureDefinition-ror-location-equipement.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location-equipement</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipement</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T13:01:23+00:00</t>
+    <t>2023-02-15T16:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour décrire une ressource matérielle discriminante pour la réalisation d'une prestation.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/StructureDefinition-ror-location-equipement.xlsx
+++ b/ig/StructureDefinition-ror-location-equipement.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-location-equipement.xlsx
+++ b/ig/StructureDefinition-ror-location-equipement.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:28:22+00:00</t>
+    <t>2023-02-17T16:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -300,25 +300,25 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.extension:equipementType</t>
-  </si>
-  <si>
-    <t>equipementType</t>
-  </si>
-  <si>
-    <t>Extension.extension:equipementType.id</t>
+    <t>Extension.extension:equipmentType</t>
+  </si>
+  <si>
+    <t>equipmentType</t>
+  </si>
+  <si>
+    <t>Extension.extension:equipmentType.id</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
-    <t>Extension.extension:equipementType.extension</t>
+    <t>Extension.extension:equipmentType.extension</t>
   </si>
   <si>
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension.extension:equipementType.url</t>
+    <t>Extension.extension:equipmentType.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -343,7 +343,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension:equipementType.value[x]</t>
+    <t>Extension.extension:equipmentType.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -707,9 +707,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.3125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/ig/StructureDefinition-ror-location-equipement.xlsx
+++ b/ig/StructureDefinition-ror-location-equipement.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipement</t>
+    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location-equipement</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:29:47+00:00</t>
+    <t>2023-02-22T17:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR pour décrire une ressource matérielle discriminante pour la réalisation d'une prestation.</t>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -300,25 +300,25 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.extension:equipmentType</t>
-  </si>
-  <si>
-    <t>equipmentType</t>
-  </si>
-  <si>
-    <t>Extension.extension:equipmentType.id</t>
+    <t>Extension.extension:equipementType</t>
+  </si>
+  <si>
+    <t>equipementType</t>
+  </si>
+  <si>
+    <t>Extension.extension:equipementType.id</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
-    <t>Extension.extension:equipmentType.extension</t>
+    <t>Extension.extension:equipementType.extension</t>
   </si>
   <si>
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension.extension:equipmentType.url</t>
+    <t>Extension.extension:equipementType.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -343,7 +343,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension:equipmentType.value[x]</t>
+    <t>Extension.extension:equipementType.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -707,9 +707,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.3125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.58984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/ig/StructureDefinition-ror-location-equipement.xlsx
+++ b/ig/StructureDefinition-ror-location-equipement.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location-equipement</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipement</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:17:29+00:00</t>
+    <t>2023-02-22T17:20:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour décrire une ressource matérielle discriminante pour la réalisation d'une prestation.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -300,25 +300,25 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.extension:equipementType</t>
-  </si>
-  <si>
-    <t>equipementType</t>
-  </si>
-  <si>
-    <t>Extension.extension:equipementType.id</t>
+    <t>Extension.extension:equipmentType</t>
+  </si>
+  <si>
+    <t>equipmentType</t>
+  </si>
+  <si>
+    <t>Extension.extension:equipmentType.id</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
-    <t>Extension.extension:equipementType.extension</t>
+    <t>Extension.extension:equipmentType.extension</t>
   </si>
   <si>
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension.extension:equipementType.url</t>
+    <t>Extension.extension:equipmentType.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -343,7 +343,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension:equipementType.value[x]</t>
+    <t>Extension.extension:equipmentType.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -707,9 +707,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.3125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
